--- a/public/formats/co-items.xlsx
+++ b/public/formats/co-items.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BREM\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -89,8 +84,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,7 +211,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,21 +388,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
@@ -423,7 +418,7 @@
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -461,7 +456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -499,7 +494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>8</v>
       </c>

--- a/public/formats/co-items.xlsx
+++ b/public/formats/co-items.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Código Interno</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Codigo Tipo de Impuesto Compra</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Talla</t>
   </si>
 </sst>
 </file>
@@ -388,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -396,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -418,7 +424,7 @@
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -455,8 +461,14 @@
       <c r="L1" t="s">
         <v>13</v>
       </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -493,8 +505,14 @@
       <c r="L2" t="s">
         <v>14</v>
       </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -530,6 +548,12 @@
       </c>
       <c r="L3" t="s">
         <v>15</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
